--- a/feature_extraction_myopathy.xlsx
+++ b/feature_extraction_myopathy.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\MATLAB\digital signal processing\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\Electromyography Project\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AC496A-21FD-44D0-8A93-6863809C620D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A40FA75-2182-448B-BEF0-C3034F533D00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4790" yWindow="1950" windowWidth="14400" windowHeight="7360" xr2:uid="{6457BFDB-36A4-42C8-9DA3-4A231FC4594C}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{718DB67F-D69C-4161-91B6-5F452771E1FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -370,16 +370,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C09F74F-2A00-47D0-A080-B29FFA8171BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53822247-FFBC-46BB-B43C-DBD075B7DA3F}">
   <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>9.5810931446179887E-2</v>
       </c>
@@ -393,7 +393,7 @@
         <v>62.870500000000199</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>7.5440394903414934E-2</v>
       </c>
@@ -407,7 +407,7 @@
         <v>41.6325</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8.5747711106244448E-2</v>
       </c>
@@ -421,7 +421,7 @@
         <v>48.422700000000148</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9.5397070663050726E-2</v>
       </c>
@@ -435,7 +435,7 @@
         <v>56.021500000000032</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9.1570192039058612E-2</v>
       </c>
@@ -449,7 +449,7 @@
         <v>57.058700000000115</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.1030689228762138</v>
       </c>
@@ -463,7 +463,7 @@
         <v>62.629200000000168</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>9.7242187465230473E-2</v>
       </c>
@@ -477,7 +477,7 @@
         <v>51.66340000000023</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9.0155548764194085E-2</v>
       </c>
@@ -491,7 +491,7 @@
         <v>52.578500000000055</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8.7801481765401881E-2</v>
       </c>
@@ -505,7 +505,7 @@
         <v>54.514600000000144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9.9699384939714461E-2</v>
       </c>
@@ -519,7 +519,7 @@
         <v>62.737500000000118</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9.0518643465392359E-2</v>
       </c>
@@ -533,7 +533,7 @@
         <v>56.216300000000167</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.11124310058348537</v>
       </c>
@@ -547,7 +547,7 @@
         <v>65.342000000000056</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9.4464631617482281E-2</v>
       </c>
@@ -561,7 +561,7 @@
         <v>59.05040000000011</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9.1102573777851886E-2</v>
       </c>
@@ -575,7 +575,7 @@
         <v>55.331700000000154</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9.9097331604494451E-2</v>
       </c>
@@ -589,7 +589,7 @@
         <v>61.752300000000197</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>9.927727402148559E-2</v>
       </c>
@@ -603,7 +603,7 @@
         <v>59.297600000000067</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>9.8788935938514275E-2</v>
       </c>
@@ -617,7 +617,7 @@
         <v>60.575700000000133</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>9.3889224975854293E-2</v>
       </c>
@@ -631,7 +631,7 @@
         <v>58.12740000000008</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.10445912501451855</v>
       </c>
@@ -645,7 +645,7 @@
         <v>66.546300000000059</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9.323826061892862E-2</v>
       </c>
@@ -659,7 +659,7 @@
         <v>58.20629999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.10618785052725958</v>
       </c>
@@ -673,7 +673,7 @@
         <v>63.878600000000027</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>9.6689067923193164E-2</v>
       </c>
@@ -687,7 +687,7 @@
         <v>56.177600000000062</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>9.3227544186227571E-2</v>
       </c>
@@ -701,7 +701,7 @@
         <v>58.056200000000118</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.10816379147286674</v>
       </c>
@@ -715,7 +715,7 @@
         <v>66.350000000000051</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>9.1279680488431117E-2</v>
       </c>
@@ -729,7 +729,7 @@
         <v>54.553499999999943</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.10102920315379074</v>
       </c>
@@ -743,7 +743,7 @@
         <v>63.194300000000119</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.10483508012122673</v>
       </c>
@@ -757,7 +757,7 @@
         <v>67.984099999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>8.5492783824636778E-2</v>
       </c>
@@ -771,7 +771,7 @@
         <v>50.735900000000079</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>9.8428337675984662E-2</v>
       </c>
@@ -785,7 +785,7 @@
         <v>59.764600000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>9.2575806828836413E-2</v>
       </c>
@@ -799,7 +799,7 @@
         <v>58.568500000000085</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>9.6635420289117951E-2</v>
       </c>
@@ -813,7 +813,7 @@
         <v>59.634100000000075</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>9.0066355362967768E-2</v>
       </c>
@@ -827,7 +827,7 @@
         <v>55.508400000000172</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>9.3365127842771706E-2</v>
       </c>
@@ -841,7 +841,7 @@
         <v>58.226900000000057</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>9.463779579212736E-2</v>
       </c>
@@ -855,7 +855,7 @@
         <v>58.450000000000124</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>9.8201088455137767E-2</v>
       </c>
@@ -869,7 +869,7 @@
         <v>59.316800000000143</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>9.757895476183602E-2</v>
       </c>
@@ -883,7 +883,7 @@
         <v>59.688600000000115</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>9.8857798196522004E-2</v>
       </c>
@@ -897,7 +897,7 @@
         <v>62.362800000000057</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>9.7772908474851358E-2</v>
       </c>
@@ -911,7 +911,7 @@
         <v>63.289900000000223</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>9.493951137867121E-2</v>
       </c>
@@ -925,7 +925,7 @@
         <v>56.634700000000187</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.10324495755852328</v>
       </c>
@@ -939,7 +939,7 @@
         <v>63.41520000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.10200717780785984</v>
       </c>
@@ -953,7 +953,7 @@
         <v>59.802000000000099</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.1093759818031154</v>
       </c>
@@ -967,7 +967,7 @@
         <v>68.148100000000241</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>8.9808965589746673E-2</v>
       </c>
@@ -981,7 +981,7 @@
         <v>56.075500000000126</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.10411885100756314</v>
       </c>
@@ -995,7 +995,7 @@
         <v>63.452200000000083</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>9.1987120567774985E-2</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>57.211400000000104</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.10212264256336173</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>65.030900000000173</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>9.8638695968379334E-2</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>60.142900000000182</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>9.3505083341017425E-2</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>58.648300000000049</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>9.9756643377260354E-2</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>60.178100000000207</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>9.9036523530427842E-2</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>59.506000000000007</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>9.9726962839129685E-2</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>60.835300000000174</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.10719295340300718</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>66.751700000000099</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>9.6648951623128615E-2</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>57.682900000000075</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>9.8216374939753881E-2</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>63.334100000000085</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>9.6407929595489716E-2</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>64.758600000000087</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>9.4562359159285805E-2</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>58.382100000000136</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>9.8602631095011231E-2</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>59.876200000000011</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.10082316658844294</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>65.995900000000034</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.11363534402381793</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>71.470600000000047</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.10403040187615614</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>65.260500000000164</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.10242309251277229</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>64.976500000000016</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>9.2815682462129928E-2</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>59.933200000000163</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.10299583857012268</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>61.867200000000061</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>9.6729900980739886E-2</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>62.142099999999964</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.10081761425387847</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>61.165050000000157</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>8.945873755942306E-2</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>58.985199999999971</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>9.4303129801138127E-2</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>58.960100000000153</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3.3935430208315007E-2</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>10.794099999999961</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.13784234037769702</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>75.680500000000109</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>8.3754643813703691E-2</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>46.501200000000068</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>9.5519532510848826E-2</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>59.3371</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>9.7828996634855558E-2</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>63.061099999999989</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.10265387809863159</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>53.981300000000125</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>8.7001543368773415E-2</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>52.892400000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>8.5799816657954178E-2</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>51.050700000000006</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>9.3068272377450634E-2</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>59.724200000000138</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>9.3031819499778901E-2</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>59.976000000000013</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>9.9497610043681059E-2</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>62.106700000000068</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0.10513867500107181</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>64.480600000000052</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>9.3175096880436264E-2</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>57.073000000000064</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>9.0233372826086844E-2</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>55.045300000000054</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>9.7877245748106564E-2</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>63.048999999999992</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>9.9614441608518733E-2</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>56.529400000000066</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>9.6013581840789147E-2</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>60.777300000000082</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>9.4467485654302463E-2</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>60.788600000000066</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0.10375639594598367</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>66.269300000000072</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>9.0344822247359069E-2</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>58.451200000000107</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0.10347665184705919</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>58.930000000000156</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0.10279921779458823</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>64.759200000000007</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>9.1888715607826729E-2</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>55.272800000000068</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>9.9709840147410925E-2</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>62.622900000000158</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>9.7803157605660426E-2</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>58.405000000000157</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>9.6116693236496215E-2</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>63.417399999999944</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>9.3882798263631981E-2</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>60.203300000000141</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>9.5003914254749133E-2</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>57.362600000000029</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>9.4476208454636668E-2</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>57.547100000000036</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>9.301094971435761E-2</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>61.330700000000036</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>9.1942354094706844E-2</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>57.067000000000064</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>9.8465270473855435E-2</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>61.877200000000073</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>8.2406523802215845E-2</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>53.349700000000063</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>9.8641474799146076E-2</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>60.668300000000116</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>9.1442797941091628E-2</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>55.79510000000009</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>0.10467652939320175</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>66.404300000000063</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>9.3101744316606644E-2</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>58.111000000000168</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>9.8121142515813595E-2</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>63.873100000000086</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>9.5465446479192001E-2</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>54.533400000000078</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>0.10128760486307749</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>62.896200000000114</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>0.10395991566014308</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>63.062600000000018</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>0.1008714826202432</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>63.965500000000006</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>8.8582524764728235E-2</v>
       </c>
